--- a/data/trans_orig/ip24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD0B9E3-6AC0-418D-8C1B-694E65F027FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECF1CEC-572A-45E3-A6B1-EE424EA5C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{900B7374-9B04-42F0-B07A-6AAB1D228104}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{933691B4-C0A1-4112-B7D9-A5D6BAA6ACB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,418 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio, no tiene tiempo libre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>25,62%</t>
@@ -98,39 +506,6 @@
     <t>28,28%</t>
   </si>
   <si>
-    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
-  </si>
-  <si>
     <t>7,67%</t>
   </si>
   <si>
@@ -152,69 +527,6 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>NO hace ejercicio, no tiene tiempo libre</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>1,76%</t>
   </si>
   <si>
@@ -242,177 +554,249 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
     <t>22,76%</t>
   </si>
   <si>
@@ -437,39 +821,9 @@
     <t>25,67%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
     <t>20,87%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
     <t>26,24%</t>
   </si>
   <si>
@@ -491,57 +845,6 @@
     <t>19,44%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
     <t>2,16%</t>
   </si>
   <si>
@@ -569,307 +872,76 @@
     <t>4,02%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>24,8%</t>
@@ -896,33 +968,6 @@
     <t>24,73%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
     <t>12,93%</t>
   </si>
   <si>
@@ -948,51 +993,6 @@
   </si>
   <si>
     <t>12,49%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
   </si>
   <si>
     <t>1,75%</t>
@@ -1408,7 +1408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E93B1CC-BEF6-43F3-AD19-409431357B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B7A9D3-2966-4883-A4D0-D69DA44EB667}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1526,10 +1526,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>63782</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1541,10 +1541,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>41182</v>
+        <v>1377</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1556,10 +1556,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>104964</v>
+        <v>1377</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1577,10 +1577,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>123641</v>
+        <v>2658</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1592,10 +1592,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>99042</v>
+        <v>2473</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1607,10 +1607,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>305</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>222684</v>
+        <v>5132</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1628,10 +1628,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>19086</v>
+        <v>2388</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1643,187 +1643,187 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>14751</v>
+        <v>7141</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N6" s="7">
-        <v>33837</v>
+        <v>9529</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>10461</v>
+        <v>3285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4246</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7">
         <v>11</v>
       </c>
-      <c r="I7" s="7">
-        <v>5788</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="7">
-        <v>31</v>
-      </c>
       <c r="N7" s="7">
-        <v>16249</v>
+        <v>7531</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>27570</v>
+        <v>3099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>29541</v>
+        <v>1550</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>57111</v>
+        <v>4648</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>4378</v>
+        <v>765</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>765</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="7">
-        <v>12</v>
-      </c>
-      <c r="N9" s="7">
-        <v>6426</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,102 +1832,102 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>248918</v>
+        <v>12195</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>621</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>441270</v>
+        <v>28983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>30644</v>
+        <v>2718</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5809</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19841</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>17</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8528</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M11" s="7">
-        <v>65</v>
-      </c>
-      <c r="N11" s="7">
-        <v>50485</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,49 +1936,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>51153</v>
+        <v>17364</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="7">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7158</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>86</v>
-      </c>
-      <c r="I12" s="7">
-        <v>56418</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>34</v>
+      </c>
+      <c r="N12" s="7">
+        <v>24522</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M12" s="7">
-        <v>157</v>
-      </c>
-      <c r="N12" s="7">
-        <v>107571</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,157 +1987,157 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>12295</v>
+        <v>51153</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="7">
+        <v>86</v>
+      </c>
+      <c r="I13" s="7">
+        <v>56418</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11036</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>157</v>
+      </c>
+      <c r="N13" s="7">
+        <v>107571</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M13" s="7">
-        <v>39</v>
-      </c>
-      <c r="N13" s="7">
-        <v>23331</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7">
         <v>38</v>
       </c>
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
       <c r="D14" s="7">
-        <v>2718</v>
+        <v>30644</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="7">
+        <v>27</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19841</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5809</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>65</v>
+      </c>
+      <c r="N14" s="7">
+        <v>50485</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="M14" s="7">
-        <v>17</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8528</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7">
-        <v>17364</v>
+        <v>12295</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="7">
+        <v>22</v>
+      </c>
+      <c r="I15" s="7">
+        <v>11036</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="7">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7158</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>39</v>
+      </c>
+      <c r="N15" s="7">
+        <v>23331</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="M15" s="7">
-        <v>34</v>
-      </c>
-      <c r="N15" s="7">
-        <v>24522</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2146,13 +2146,13 @@
         <v>422</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2161,13 +2161,13 @@
         <v>3252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2176,13 +2176,13 @@
         <v>3674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2197,13 @@
         <v>114596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -2212,13 +2212,13 @@
         <v>103515</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>319</v>
@@ -2227,66 +2227,66 @@
         <v>218110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>39842</v>
+        <v>10461</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="7">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5788</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>31</v>
+      </c>
+      <c r="N18" s="7">
+        <v>16249</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="7">
-        <v>48</v>
-      </c>
-      <c r="I18" s="7">
-        <v>34475</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="7">
-        <v>100</v>
-      </c>
-      <c r="N18" s="7">
-        <v>74317</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,49 +2295,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>72528</v>
+        <v>27570</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="7">
+        <v>42</v>
+      </c>
+      <c r="I19" s="7">
+        <v>29541</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>90</v>
+      </c>
+      <c r="N19" s="7">
+        <v>57111</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="7">
-        <v>112</v>
-      </c>
-      <c r="I19" s="7">
-        <v>82867</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" s="7">
-        <v>206</v>
-      </c>
-      <c r="N19" s="7">
-        <v>155395</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,202 +2346,202 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="D20" s="7">
-        <v>36534</v>
+        <v>123641</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="7">
+        <v>143</v>
+      </c>
+      <c r="I20" s="7">
+        <v>99042</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>305</v>
+      </c>
+      <c r="N20" s="7">
+        <v>222684</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="7">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7">
-        <v>18067</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" s="7">
-        <v>76</v>
-      </c>
-      <c r="N20" s="7">
-        <v>54600</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7">
-        <v>7244</v>
+        <v>63782</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="7">
+        <v>57</v>
+      </c>
+      <c r="I21" s="7">
+        <v>41182</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>131</v>
+      </c>
+      <c r="N21" s="7">
+        <v>104964</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="7">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7">
-        <v>4813</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="7">
-        <v>18</v>
-      </c>
-      <c r="N21" s="7">
-        <v>12057</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>15088</v>
+        <v>19086</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="7">
+        <v>24</v>
+      </c>
+      <c r="I22" s="7">
+        <v>14751</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>52</v>
+      </c>
+      <c r="N22" s="7">
+        <v>33837</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="7">
-        <v>37</v>
-      </c>
-      <c r="I22" s="7">
-        <v>26211</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M22" s="7">
-        <v>63</v>
-      </c>
-      <c r="N22" s="7">
-        <v>41299</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>3780</v>
+        <v>4378</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2048</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6426</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4373</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M23" s="7">
-        <v>13</v>
-      </c>
-      <c r="N23" s="7">
-        <v>8154</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,102 +2550,102 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="D24" s="7">
-        <v>175016</v>
+        <v>248918</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="7">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="I24" s="7">
-        <v>170807</v>
+        <v>192352</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M24" s="7">
-        <v>476</v>
+        <v>621</v>
       </c>
       <c r="N24" s="7">
-        <v>345822</v>
+        <v>441270</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>3285</v>
+        <v>6498</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6543</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" s="7">
+        <v>20</v>
+      </c>
+      <c r="N25" s="7">
+        <v>13040</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4246</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M25" s="7">
-        <v>11</v>
-      </c>
-      <c r="N25" s="7">
-        <v>7531</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D26" s="7">
-        <v>2388</v>
+        <v>29520</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="7">
+        <v>44</v>
+      </c>
+      <c r="I26" s="7">
+        <v>37583</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="7">
+        <v>86</v>
+      </c>
+      <c r="N26" s="7">
+        <v>67103</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="H26" s="7">
-        <v>11</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7141</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M26" s="7">
-        <v>15</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9529</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,202 +2705,202 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D27" s="7">
-        <v>3099</v>
+        <v>67868</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="7">
+        <v>104</v>
+      </c>
+      <c r="I27" s="7">
+        <v>76307</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" s="7">
+        <v>190</v>
+      </c>
+      <c r="N27" s="7">
+        <v>144175</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3</v>
-      </c>
-      <c r="I27" s="7">
-        <v>1550</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M27" s="7">
-        <v>7</v>
-      </c>
-      <c r="N27" s="7">
-        <v>4648</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>41436</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="7">
+        <v>45</v>
+      </c>
+      <c r="I28" s="7">
+        <v>31725</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>94</v>
+      </c>
+      <c r="N28" s="7">
+        <v>73160</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1377</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M28" s="7">
-        <v>3</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1377</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7">
-        <v>2658</v>
+        <v>22288</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="7">
+        <v>13</v>
+      </c>
+      <c r="I29" s="7">
+        <v>10454</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="7">
-        <v>2473</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>39</v>
+      </c>
+      <c r="N29" s="7">
+        <v>32742</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="M29" s="7">
-        <v>9</v>
-      </c>
-      <c r="N29" s="7">
-        <v>5132</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>765</v>
+        <v>3248</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5290</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>222</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N30" s="7">
-        <v>765</v>
+        <v>8539</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,93 +2909,93 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="D31" s="7">
-        <v>12195</v>
+        <v>170858</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I31" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M31" s="7">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="N31" s="7">
-        <v>28983</v>
+        <v>338760</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D32" s="7">
-        <v>41436</v>
+        <v>7244</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>31725</v>
+        <v>4813</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="M32" s="7">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>73160</v>
+        <v>12057</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>232</v>
@@ -3013,10 +3013,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="7">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D33" s="7">
-        <v>67868</v>
+        <v>15088</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>235</v>
@@ -3028,10 +3028,10 @@
         <v>237</v>
       </c>
       <c r="H33" s="7">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="I33" s="7">
-        <v>76307</v>
+        <v>26211</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>238</v>
@@ -3043,10 +3043,10 @@
         <v>240</v>
       </c>
       <c r="M33" s="7">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="N33" s="7">
-        <v>144175</v>
+        <v>41299</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>241</v>
@@ -3064,10 +3064,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="7">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D34" s="7">
-        <v>22288</v>
+        <v>72528</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>244</v>
@@ -3079,10 +3079,10 @@
         <v>246</v>
       </c>
       <c r="H34" s="7">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="I34" s="7">
-        <v>10454</v>
+        <v>82867</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>247</v>
@@ -3094,10 +3094,10 @@
         <v>249</v>
       </c>
       <c r="M34" s="7">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="N34" s="7">
-        <v>32742</v>
+        <v>155395</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>250</v>
@@ -3112,13 +3112,13 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>6498</v>
+        <v>39842</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>253</v>
@@ -3130,25 +3130,25 @@
         <v>255</v>
       </c>
       <c r="H35" s="7">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="I35" s="7">
-        <v>6543</v>
+        <v>34475</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>257</v>
       </c>
       <c r="M35" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N35" s="7">
-        <v>13040</v>
+        <v>74317</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>258</v>
@@ -3163,43 +3163,43 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D36" s="7">
-        <v>29520</v>
+        <v>36534</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>261</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>27</v>
+      </c>
+      <c r="I36" s="7">
+        <v>18067</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="7">
-        <v>44</v>
-      </c>
-      <c r="I36" s="7">
-        <v>37583</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>265</v>
       </c>
       <c r="M36" s="7">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N36" s="7">
-        <v>67103</v>
+        <v>54600</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>266</v>
@@ -3214,13 +3214,13 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>3248</v>
+        <v>3780</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>269</v>
@@ -3232,10 +3232,10 @@
         <v>271</v>
       </c>
       <c r="H37" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>5290</v>
+        <v>4373</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>272</v>
@@ -3247,10 +3247,10 @@
         <v>274</v>
       </c>
       <c r="M37" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N37" s="7">
-        <v>8539</v>
+        <v>8154</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>275</v>
@@ -3268,49 +3268,49 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D38" s="7">
-        <v>170858</v>
+        <v>175016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H38" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I38" s="7">
-        <v>167902</v>
+        <v>170807</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M38" s="7">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="N38" s="7">
-        <v>338760</v>
+        <v>345822</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,10 +3321,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="D39" s="7">
-        <v>178988</v>
+        <v>26921</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>278</v>
@@ -3333,37 +3333,37 @@
         <v>279</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="7">
+        <v>42</v>
+      </c>
+      <c r="I39" s="7">
+        <v>24331</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H39" s="7">
-        <v>183</v>
-      </c>
-      <c r="I39" s="7">
-        <v>131469</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="K39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7">
+        <v>89</v>
+      </c>
+      <c r="N39" s="7">
+        <v>51252</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M39" s="7">
-        <v>401</v>
-      </c>
-      <c r="N39" s="7">
-        <v>310457</v>
-      </c>
-      <c r="O39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,49 +3372,49 @@
         <v>20</v>
       </c>
       <c r="C40" s="7">
-        <v>417</v>
+        <v>139</v>
       </c>
       <c r="D40" s="7">
-        <v>317578</v>
+        <v>92200</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="H40" s="7">
+        <v>143</v>
+      </c>
+      <c r="I40" s="7">
+        <v>102967</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H40" s="7">
-        <v>456</v>
-      </c>
-      <c r="I40" s="7">
-        <v>321776</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>282</v>
+      </c>
+      <c r="N40" s="7">
+        <v>195167</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="M40" s="7">
-        <v>873</v>
-      </c>
-      <c r="N40" s="7">
-        <v>639355</v>
-      </c>
-      <c r="O40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,94 +3423,94 @@
         <v>30</v>
       </c>
       <c r="C41" s="7">
-        <v>124</v>
+        <v>417</v>
       </c>
       <c r="D41" s="7">
-        <v>93301</v>
+        <v>317578</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="H41" s="7">
+        <v>456</v>
+      </c>
+      <c r="I41" s="7">
+        <v>321776</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H41" s="7">
-        <v>89</v>
-      </c>
-      <c r="I41" s="7">
-        <v>55857</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>873</v>
+      </c>
+      <c r="N41" s="7">
+        <v>639355</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="M41" s="7">
-        <v>213</v>
-      </c>
-      <c r="N41" s="7">
-        <v>149158</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="D42" s="7">
-        <v>26921</v>
+        <v>178988</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>183</v>
+      </c>
+      <c r="I42" s="7">
+        <v>131469</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="7">
-        <v>42</v>
-      </c>
-      <c r="I42" s="7">
-        <v>24331</v>
-      </c>
-      <c r="J42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>401</v>
+      </c>
+      <c r="N42" s="7">
+        <v>310457</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="M42" s="7">
-        <v>89</v>
-      </c>
-      <c r="N42" s="7">
-        <v>51252</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>308</v>
@@ -3522,13 +3522,13 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="7">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D43" s="7">
-        <v>92200</v>
+        <v>93301</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>310</v>
@@ -3540,10 +3540,10 @@
         <v>312</v>
       </c>
       <c r="H43" s="7">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="I43" s="7">
-        <v>102967</v>
+        <v>55857</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>313</v>
@@ -3555,10 +3555,10 @@
         <v>315</v>
       </c>
       <c r="M43" s="7">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="N43" s="7">
-        <v>195167</v>
+        <v>149158</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>316</v>
@@ -3573,7 +3573,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
         <v>24</v>
@@ -3597,7 +3597,7 @@
         <v>14964</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>322</v>
@@ -3633,13 +3633,13 @@
         <v>721582</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H45" s="7">
         <v>939</v>
@@ -3648,13 +3648,13 @@
         <v>651363</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M45" s="7">
         <v>1908</v>
@@ -3663,13 +3663,13 @@
         <v>1372946</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECF1CEC-572A-45E3-A6B1-EE424EA5C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB25BBE-2339-4834-A7AA-612A27BF03EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{933691B4-C0A1-4112-B7D9-A5D6BAA6ACB5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09A444B0-36CF-4B62-9073-32DFB2DE5F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="328">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre / solo 2023 en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
@@ -68,15 +68,153 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
     <t>NO hace ejercicio, no tiene tiempo libre</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>9,99%</t>
   </si>
   <si>
@@ -98,925 +236,790 @@
     <t>12,71%</t>
   </si>
   <si>
-    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1030,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1123,39 +1126,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1207,7 +1210,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1318,13 +1321,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1333,6 +1329,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1397,19 +1400,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B7A9D3-2966-4883-A4D0-D69DA44EB667}">
-  <dimension ref="A1:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED3602-8C72-4213-83AA-011CBF68E133}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1526,10 +1549,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1541,286 +1564,286 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>765</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1377</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>2658</v>
+        <v>3099</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1550</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2473</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4648</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5132</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3285</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2388</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4246</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7">
         <v>11</v>
       </c>
-      <c r="I6" s="7">
-        <v>7141</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="N6" s="7">
+        <v>7531</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>15</v>
-      </c>
-      <c r="N6" s="7">
-        <v>9529</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2388</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3285</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7141</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4246</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7">
+        <v>9529</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>11</v>
-      </c>
-      <c r="N7" s="7">
-        <v>7531</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>3099</v>
+        <v>2658</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2473</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1550</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5132</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4648</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1377</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>765</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1377</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>765</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>65</v>
@@ -1885,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2718</v>
+        <v>422</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3252</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5809</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>71</v>
@@ -1915,10 +1938,10 @@
         <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>8528</v>
+        <v>3674</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>73</v>
@@ -1933,13 +1956,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>17364</v>
+        <v>12295</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>76</v>
@@ -1951,10 +1974,10 @@
         <v>78</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7">
-        <v>7158</v>
+        <v>11036</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>79</v>
@@ -1966,10 +1989,10 @@
         <v>81</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N12" s="7">
-        <v>24522</v>
+        <v>23331</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>82</v>
@@ -1984,13 +2007,13 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>51153</v>
+        <v>30644</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>85</v>
@@ -2002,10 +2025,10 @@
         <v>87</v>
       </c>
       <c r="H13" s="7">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>56418</v>
+        <v>19841</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>88</v>
@@ -2017,10 +2040,10 @@
         <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>107571</v>
+        <v>50485</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>91</v>
@@ -2035,13 +2058,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>30644</v>
+        <v>51153</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>94</v>
@@ -2053,10 +2076,10 @@
         <v>96</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I14" s="7">
-        <v>19841</v>
+        <v>56418</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>97</v>
@@ -2068,10 +2091,10 @@
         <v>99</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="N14" s="7">
-        <v>50485</v>
+        <v>107571</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>100</v>
@@ -2086,13 +2109,13 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="7">
-        <v>12295</v>
+        <v>17364</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>103</v>
@@ -2104,10 +2127,10 @@
         <v>105</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>11036</v>
+        <v>7158</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>106</v>
@@ -2119,10 +2142,10 @@
         <v>108</v>
       </c>
       <c r="M15" s="7">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N15" s="7">
-        <v>23331</v>
+        <v>24522</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>109</v>
@@ -2137,31 +2160,31 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>422</v>
+        <v>2718</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
       <c r="I16" s="7">
-        <v>3252</v>
+        <v>5809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>115</v>
@@ -2170,10 +2193,10 @@
         <v>116</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>3674</v>
+        <v>8528</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>117</v>
@@ -2244,79 +2267,79 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>10461</v>
+        <v>4378</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>5788</v>
+        <v>2048</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>16249</v>
+        <v>6426</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>27570</v>
+        <v>19086</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="7">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7">
+        <v>14751</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>29541</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>133</v>
@@ -2325,166 +2348,166 @@
         <v>134</v>
       </c>
       <c r="M19" s="7">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="N19" s="7">
-        <v>57111</v>
+        <v>33837</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7">
-        <v>123641</v>
+        <v>63782</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>57</v>
+      </c>
+      <c r="I20" s="7">
+        <v>41182</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="7">
+      <c r="K20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="7">
+        <v>131</v>
+      </c>
+      <c r="N20" s="7">
+        <v>104964</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="7">
-        <v>99042</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" s="7">
-        <v>305</v>
-      </c>
-      <c r="N20" s="7">
-        <v>222684</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="D21" s="7">
-        <v>63782</v>
+        <v>123641</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>143</v>
+      </c>
+      <c r="I21" s="7">
+        <v>99042</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
-      <c r="I21" s="7">
-        <v>41182</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>305</v>
+      </c>
+      <c r="N21" s="7">
+        <v>222684</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="M21" s="7">
-        <v>131</v>
-      </c>
-      <c r="N21" s="7">
-        <v>104964</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>19086</v>
+        <v>27570</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>42</v>
+      </c>
+      <c r="I22" s="7">
+        <v>29541</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="7">
-        <v>24</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14751</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>90</v>
+      </c>
+      <c r="N22" s="7">
+        <v>57111</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="M22" s="7">
-        <v>52</v>
-      </c>
-      <c r="N22" s="7">
-        <v>33837</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>161</v>
@@ -2496,13 +2519,13 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>4378</v>
+        <v>10461</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>163</v>
@@ -2514,10 +2537,10 @@
         <v>165</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
-        <v>2048</v>
+        <v>5788</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>166</v>
@@ -2529,10 +2552,10 @@
         <v>168</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>6426</v>
+        <v>16249</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>169</v>
@@ -2603,40 +2626,40 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>6498</v>
+        <v>3248</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>6543</v>
+        <v>5290</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>177</v>
       </c>
       <c r="M25" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>13040</v>
+        <v>8539</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>178</v>
@@ -2651,13 +2674,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>29520</v>
+        <v>22288</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>181</v>
@@ -2669,10 +2692,10 @@
         <v>183</v>
       </c>
       <c r="H26" s="7">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I26" s="7">
-        <v>37583</v>
+        <v>10454</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>184</v>
@@ -2684,10 +2707,10 @@
         <v>186</v>
       </c>
       <c r="M26" s="7">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="N26" s="7">
-        <v>67103</v>
+        <v>32742</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>187</v>
@@ -2702,13 +2725,13 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="7">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7">
-        <v>67868</v>
+        <v>41436</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>190</v>
@@ -2720,10 +2743,10 @@
         <v>192</v>
       </c>
       <c r="H27" s="7">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="I27" s="7">
-        <v>76307</v>
+        <v>31725</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>193</v>
@@ -2735,10 +2758,10 @@
         <v>195</v>
       </c>
       <c r="M27" s="7">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="N27" s="7">
-        <v>144175</v>
+        <v>73160</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>196</v>
@@ -2753,13 +2776,13 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7">
-        <v>41436</v>
+        <v>67868</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>199</v>
@@ -2771,10 +2794,10 @@
         <v>201</v>
       </c>
       <c r="H28" s="7">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="I28" s="7">
-        <v>31725</v>
+        <v>76307</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>202</v>
@@ -2786,10 +2809,10 @@
         <v>204</v>
       </c>
       <c r="M28" s="7">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="N28" s="7">
-        <v>73160</v>
+        <v>144175</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>205</v>
@@ -2804,13 +2827,13 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>22288</v>
+        <v>29520</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>208</v>
@@ -2822,10 +2845,10 @@
         <v>210</v>
       </c>
       <c r="H29" s="7">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>10454</v>
+        <v>37583</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>211</v>
@@ -2837,10 +2860,10 @@
         <v>213</v>
       </c>
       <c r="M29" s="7">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="N29" s="7">
-        <v>32742</v>
+        <v>67103</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>214</v>
@@ -2855,13 +2878,13 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>3248</v>
+        <v>6498</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>217</v>
@@ -2876,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>5290</v>
+        <v>6543</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>220</v>
@@ -2888,10 +2911,10 @@
         <v>222</v>
       </c>
       <c r="M30" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N30" s="7">
-        <v>8539</v>
+        <v>13040</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>223</v>
@@ -2962,10 +2985,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>7244</v>
+        <v>3780</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>227</v>
@@ -2980,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>4813</v>
+        <v>4373</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>230</v>
@@ -2989,64 +3012,64 @@
         <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N32" s="7">
-        <v>12057</v>
+        <v>8154</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="7">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D33" s="7">
-        <v>15088</v>
+        <v>36534</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H33" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I33" s="7">
-        <v>26211</v>
+        <v>18067</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>240</v>
       </c>
       <c r="M33" s="7">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="N33" s="7">
-        <v>41299</v>
+        <v>54600</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>241</v>
@@ -3061,13 +3084,13 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D34" s="7">
-        <v>72528</v>
+        <v>39842</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>244</v>
@@ -3079,10 +3102,10 @@
         <v>246</v>
       </c>
       <c r="H34" s="7">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="I34" s="7">
-        <v>82867</v>
+        <v>34475</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>247</v>
@@ -3094,10 +3117,10 @@
         <v>249</v>
       </c>
       <c r="M34" s="7">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="N34" s="7">
-        <v>155395</v>
+        <v>74317</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>250</v>
@@ -3112,13 +3135,13 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D35" s="7">
-        <v>39842</v>
+        <v>72528</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>253</v>
@@ -3130,136 +3153,136 @@
         <v>255</v>
       </c>
       <c r="H35" s="7">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="I35" s="7">
-        <v>34475</v>
+        <v>82867</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M35" s="7">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="N35" s="7">
-        <v>74317</v>
+        <v>155395</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="7">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D36" s="7">
-        <v>36534</v>
+        <v>15088</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H36" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I36" s="7">
-        <v>18067</v>
+        <v>26211</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M36" s="7">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="N36" s="7">
-        <v>54600</v>
+        <v>41299</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>3780</v>
+        <v>7244</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>4373</v>
+        <v>4813</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N37" s="7">
-        <v>8154</v>
+        <v>12057</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,91 +3344,91 @@
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D39" s="7">
-        <v>26921</v>
+        <v>12594</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="H39" s="7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I39" s="7">
-        <v>24331</v>
+        <v>14964</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>280</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>281</v>
       </c>
       <c r="M39" s="7">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="N39" s="7">
-        <v>51252</v>
+        <v>27558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" s="7">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D40" s="7">
-        <v>92200</v>
+        <v>93301</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H40" s="7">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="I40" s="7">
-        <v>102967</v>
+        <v>55857</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="M40" s="7">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="N40" s="7">
-        <v>195167</v>
+        <v>149158</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>290</v>
@@ -3420,13 +3443,13 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" s="7">
-        <v>417</v>
+        <v>218</v>
       </c>
       <c r="D41" s="7">
-        <v>317578</v>
+        <v>178988</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>293</v>
@@ -3438,64 +3461,64 @@
         <v>295</v>
       </c>
       <c r="H41" s="7">
-        <v>456</v>
+        <v>183</v>
       </c>
       <c r="I41" s="7">
-        <v>321776</v>
+        <v>131469</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>401</v>
+      </c>
+      <c r="N41" s="7">
+        <v>310457</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="M41" s="7">
-        <v>873</v>
-      </c>
-      <c r="N41" s="7">
-        <v>639355</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7">
-        <v>218</v>
+        <v>417</v>
       </c>
       <c r="D42" s="7">
-        <v>178988</v>
+        <v>317578</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7">
+        <v>456</v>
+      </c>
+      <c r="I42" s="7">
+        <v>321776</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="H42" s="7">
-        <v>183</v>
-      </c>
-      <c r="I42" s="7">
-        <v>131469</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>305</v>
@@ -3504,10 +3527,10 @@
         <v>306</v>
       </c>
       <c r="M42" s="7">
-        <v>401</v>
+        <v>873</v>
       </c>
       <c r="N42" s="7">
-        <v>310457</v>
+        <v>639355</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>307</v>
@@ -3522,13 +3545,13 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D43" s="7">
-        <v>93301</v>
+        <v>92200</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>310</v>
@@ -3540,10 +3563,10 @@
         <v>312</v>
       </c>
       <c r="H43" s="7">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="I43" s="7">
-        <v>55857</v>
+        <v>102967</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>313</v>
@@ -3555,10 +3578,10 @@
         <v>315</v>
       </c>
       <c r="M43" s="7">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="N43" s="7">
-        <v>149158</v>
+        <v>195167</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>316</v>
@@ -3573,13 +3596,13 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D44" s="7">
-        <v>12594</v>
+        <v>26921</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>319</v>
@@ -3591,28 +3614,28 @@
         <v>321</v>
       </c>
       <c r="H44" s="7">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I44" s="7">
-        <v>14964</v>
+        <v>24331</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M44" s="7">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="N44" s="7">
-        <v>27558</v>
+        <v>51252</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>325</v>
@@ -3670,6 +3693,11 @@
       </c>
       <c r="Q45" s="7" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ip24_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB25BBE-2339-4834-A7AA-612A27BF03EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE12573A-95EA-4234-869E-FE1F79CEFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{09A444B0-36CF-4B62-9073-32DFB2DE5F7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1B15FDC-7F44-4C9C-8940-5E7AD70CC35F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="329">
   <si>
     <t>Menores según el ejercicio físico  que realiza en su tiempo libre / solo 2023 en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>27,61%</t>
+    <t>27,47%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>12,81%</t>
+    <t>12,84%</t>
   </si>
   <si>
     <t>Hace entrenamiento deportivo o físico varias veces por semana</t>
@@ -98,853 +98,856 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>NO hace ejercicio, no tiene tiempo libre</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>Hace actividad física regular varias veces al mes (deportes, gimnasia, correr, natación, ciclismo, juegos de equipo, etc</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>Hace alguna actividad física o deportiva ocasional (caminar o pasear en bicicleta, gimnasia, actividades recreativas de</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>NO hace ejercicio,. Su tiempo libre lo ocupa de forma casi completamente sedentaria (leer, ver la televisión, ir al cine</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>NO hace ejercicio, no tiene tiempo libre</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,83%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>44,01%</t>
   </si>
   <si>
-    <t>40,78%</t>
+    <t>40,21%</t>
   </si>
   <si>
     <t>47,51%</t>
@@ -953,70 +956,70 @@
     <t>49,4%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>46,57%</t>
   </si>
   <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1431,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EED3602-8C72-4213-83AA-011CBF68E133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9A0C0B-4B29-4884-93B8-175FFAABA240}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2184,13 +2187,13 @@
         <v>5809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2199,13 +2202,13 @@
         <v>8528</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,7 +2264,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2273,13 +2276,13 @@
         <v>4378</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2288,13 +2291,13 @@
         <v>2048</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2303,13 +2306,13 @@
         <v>6426</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2327,13 @@
         <v>19086</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -2339,13 +2342,13 @@
         <v>14751</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -2354,13 +2357,13 @@
         <v>33837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2378,13 @@
         <v>63782</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>57</v>
@@ -2390,13 +2393,13 @@
         <v>41182</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -2405,13 +2408,13 @@
         <v>104964</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,13 +2429,13 @@
         <v>123641</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H21" s="7">
         <v>143</v>
@@ -2441,13 +2444,13 @@
         <v>99042</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M21" s="7">
         <v>305</v>
@@ -2456,13 +2459,13 @@
         <v>222684</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2480,7 @@
         <v>27570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>155</v>
@@ -2635,10 +2638,10 @@
         <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -2647,13 +2650,13 @@
         <v>5290</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -2662,13 +2665,13 @@
         <v>8539</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2686,13 @@
         <v>22288</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -2698,13 +2701,13 @@
         <v>10454</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -2713,13 +2716,13 @@
         <v>32742</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2737,7 @@
         <v>41436</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>191</v>
@@ -2890,10 +2893,10 @@
         <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2902,13 +2905,13 @@
         <v>6543</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -2917,13 +2920,13 @@
         <v>13040</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2982,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2994,13 @@
         <v>3780</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3006,13 +3009,13 @@
         <v>4373</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -3021,13 +3024,13 @@
         <v>8154</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3045,13 @@
         <v>36534</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H33" s="7">
         <v>27</v>
@@ -3057,10 +3060,10 @@
         <v>18067</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>240</v>
@@ -3264,10 +3267,10 @@
         <v>274</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -3353,10 +3356,10 @@
         <v>279</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="H39" s="7">
         <v>26</v>
@@ -3365,13 +3368,13 @@
         <v>14964</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>281</v>
+        <v>122</v>
       </c>
       <c r="M39" s="7">
         <v>50</v>
@@ -3380,10 +3383,10 @@
         <v>27558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>284</v>
@@ -3422,7 +3425,7 @@
         <v>289</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="M40" s="7">
         <v>213</v>
@@ -3431,13 +3434,13 @@
         <v>149158</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3455,13 @@
         <v>178988</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H41" s="7">
         <v>183</v>
@@ -3470,10 +3473,10 @@
         <v>247</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
         <v>401</v>
@@ -3482,13 +3485,13 @@
         <v>310457</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3506,13 @@
         <v>317578</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H42" s="7">
         <v>456</v>
@@ -3518,13 +3521,13 @@
         <v>321776</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M42" s="7">
         <v>873</v>
@@ -3533,13 +3536,13 @@
         <v>639355</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3557,13 @@
         <v>92200</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H43" s="7">
         <v>143</v>
@@ -3569,13 +3572,13 @@
         <v>102967</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M43" s="7">
         <v>282</v>
@@ -3584,13 +3587,13 @@
         <v>195167</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3608,13 @@
         <v>26921</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H44" s="7">
         <v>42</v>
@@ -3620,13 +3623,13 @@
         <v>24331</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M44" s="7">
         <v>89</v>
@@ -3635,13 +3638,13 @@
         <v>51252</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,7 +3700,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
